--- a/data/CdA Water Quality Monitoring Dataset.xlsx
+++ b/data/CdA Water Quality Monitoring Dataset.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16000" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14080" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -2168,9 +2168,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AM268"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E14" sqref="E14"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A118" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="J132" sqref="J132"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -20774,7 +20774,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AN279"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A11" sqref="A11:XFD11"/>
     </sheetView>
   </sheetViews>
